--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">User will navigate to the Services </t>
   </si>
   <si>
-    <t xml:space="preserve">The Services section is present and visible to the User</t>
+    <t xml:space="preserve">The Services section is present and has content visible to the User</t>
   </si>
   <si>
     <t xml:space="preserve">Contact Form</t>
@@ -169,19 +169,37 @@
     <t xml:space="preserve">4.b</t>
   </si>
   <si>
+    <t xml:space="preserve">Order Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Announcement Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Order Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Announcement Management</t>
+    <t xml:space="preserve">Employee/Admin will navigate to Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Login prompts are present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee/Admin will attempt to login with invalid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login attempt is rejected, resulting in an invalid login message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee/Admin will attempt to login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login attempt is accepted, resulting in a successful login message</t>
   </si>
 </sst>
 </file>
@@ -401,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -703,28 +721,58 @@
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="8"/>
-    </row>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">The Contact form fields are present</t>
   </si>
   <si>
-    <t xml:space="preserve">4/4.a</t>
+    <t xml:space="preserve">4.a</t>
   </si>
   <si>
     <t xml:space="preserve">Fields should be verified before submittal</t>
@@ -172,10 +172,70 @@
     <t xml:space="preserve">Order Management</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee/Admin will navigate to Order Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Order Management page is present and has orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee/Admin will view an Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific order information is present (including dates, relevant totals, prices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.b/c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account Management</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin will navigate to View Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All employee accounts are present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin will Add a New Employee Account and enter employee information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A New Employee Account is created with the information that was specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.a.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin will Remove an Employee Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Employee Account is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.a.ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin will Edit An Employee Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Employee Account correctly reflects the change made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.a.iii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin will Navigate to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.b</t>
   </si>
   <si>
     <t xml:space="preserve">Announcement Management</t>
@@ -344,12 +404,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -421,18 +481,18 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="93.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,54 +751,139 @@
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="B23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="8"/>
+      <c r="B24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="8"/>
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="8"/>
+      <c r="B27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="8"/>
+      <c r="B28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E30" s="8"/>
-    </row>
+      <c r="B29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
@@ -749,10 +894,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -761,12 +906,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
@@ -778,7 +923,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Order Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Employee/Admin will navigate to Order Management</t>
+    <t xml:space="preserve">Employee/Admin will navigate to View Orders from the Account Menu</t>
   </si>
   <si>
     <t xml:space="preserve">The Order Management page is present and has orders</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Account Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin will navigate to View Employees</t>
+    <t xml:space="preserve">Admin will navigate to View Employees from the Account Menu</t>
   </si>
   <si>
     <t xml:space="preserve">All employee accounts are present</t>
@@ -232,13 +232,16 @@
     <t xml:space="preserve">Product Management</t>
   </si>
   <si>
+    <t xml:space="preserve">Admin will Navigate to Manage Items from the Account Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Announcement Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admin will Navigate to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Announcement Management</t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
@@ -481,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +866,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
@@ -877,13 +880,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
@@ -894,10 +897,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -908,10 +911,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>

--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -484,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/FoxCycle - UAT.xlsx
+++ b/FoxCycle - UAT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">The current inventory of accessories is visible to the User</t>
   </si>
   <si>
-    <t xml:space="preserve">Shopping Cart</t>
+    <t xml:space="preserve">Shopping Cart &amp; Checkout</t>
   </si>
   <si>
     <t xml:space="preserve">User will access the Shopping Cart</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">6.a</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin will Add a New Employee Account and enter employee information</t>
+    <t xml:space="preserve">Admin will Create Account and enter employee information</t>
   </si>
   <si>
     <t xml:space="preserve">A New Employee Account is created with the information that was specified</t>
@@ -235,13 +235,22 @@
     <t xml:space="preserve">Admin will Navigate to Manage Items from the Account Menu</t>
   </si>
   <si>
+    <t xml:space="preserve">The Product Management section is present and page has products</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.b</t>
   </si>
   <si>
-    <t xml:space="preserve">Announcement Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin will Navigate to </t>
+    <t xml:space="preserve">Admin will Add a New Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Product will be added and presesnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin will Remove a New Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Product will be removed and not present</t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
@@ -308,7 +317,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +326,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC99"/>
+        <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,8 +404,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -421,7 +444,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -430,7 +453,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF99CC99"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -482,10 +505,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,7 +571,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -557,7 +580,7 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -579,7 +602,7 @@
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -588,7 +611,7 @@
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -597,13 +620,13 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -612,7 +635,7 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -621,7 +644,7 @@
       <c r="A11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -635,7 +658,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -649,7 +672,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -663,7 +686,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -682,16 +705,16 @@
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="n">
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -700,61 +723,61 @@
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -763,12 +786,12 @@
       <c r="D23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -777,12 +800,12 @@
       <c r="D24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -797,7 +820,7 @@
       <c r="D26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -811,7 +834,7 @@
       <c r="D27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -825,7 +848,7 @@
       <c r="D28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -839,7 +862,7 @@
       <c r="D29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -851,75 +874,89 @@
       <c r="B31" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="C31" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="8" t="n">
+      <c r="E35" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="8" t="n">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="8" t="n">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9" t="n">
         <v>7</v>
       </c>
     </row>
